--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1rapl1-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1rapl1-Ptprf.xlsx
@@ -543,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1173095</v>
+        <v>0.159713</v>
       </c>
       <c r="H2">
-        <v>0.234619</v>
+        <v>0.319426</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.245966</v>
+        <v>0.8108664999999999</v>
       </c>
       <c r="N2">
-        <v>0.491932</v>
+        <v>1.621733</v>
       </c>
       <c r="O2">
-        <v>0.03271899873118758</v>
+        <v>0.0929863610355799</v>
       </c>
       <c r="P2">
-        <v>0.02828474718162756</v>
+        <v>0.08514801891941343</v>
       </c>
       <c r="Q2">
-        <v>0.028854148477</v>
+        <v>0.1295059213145</v>
       </c>
       <c r="R2">
-        <v>0.115416593908</v>
+        <v>0.5180236852579999</v>
       </c>
       <c r="S2">
-        <v>0.03271899873118758</v>
+        <v>0.0929863610355799</v>
       </c>
       <c r="T2">
-        <v>0.02828474718162756</v>
+        <v>0.08514801891941343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1173095</v>
+        <v>0.159713</v>
       </c>
       <c r="H3">
-        <v>0.234619</v>
+        <v>0.319426</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>4.543219</v>
       </c>
       <c r="O3">
-        <v>0.2014500333332077</v>
+        <v>0.1736650041232461</v>
       </c>
       <c r="P3">
-        <v>0.261222690952747</v>
+        <v>0.2385387097426263</v>
       </c>
       <c r="Q3">
-        <v>0.1776542497601667</v>
+        <v>0.2418703787156667</v>
       </c>
       <c r="R3">
-        <v>1.065925498561</v>
+        <v>1.451222272294</v>
       </c>
       <c r="S3">
-        <v>0.2014500333332077</v>
+        <v>0.1736650041232461</v>
       </c>
       <c r="T3">
-        <v>0.261222690952747</v>
+        <v>0.2385387097426263</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1173095</v>
+        <v>0.159713</v>
       </c>
       <c r="H4">
-        <v>0.234619</v>
+        <v>0.319426</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01693</v>
+        <v>0.01802466666666666</v>
       </c>
       <c r="N4">
-        <v>0.05078999999999999</v>
+        <v>0.054074</v>
       </c>
       <c r="O4">
-        <v>0.002252069995523794</v>
+        <v>0.002066984099371042</v>
       </c>
       <c r="P4">
-        <v>0.002920286359405087</v>
+        <v>0.002839119617747411</v>
       </c>
       <c r="Q4">
-        <v>0.001986049834999999</v>
+        <v>0.002878773587333333</v>
       </c>
       <c r="R4">
-        <v>0.01191629901</v>
+        <v>0.017272641524</v>
       </c>
       <c r="S4">
-        <v>0.002252069995523794</v>
+        <v>0.002066984099371042</v>
       </c>
       <c r="T4">
-        <v>0.002920286359405087</v>
+        <v>0.002839119617747411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1173095</v>
+        <v>0.159713</v>
       </c>
       <c r="H5">
-        <v>0.234619</v>
+        <v>0.319426</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.914489</v>
+        <v>6.303909</v>
       </c>
       <c r="N5">
-        <v>9.828977999999999</v>
+        <v>12.607818</v>
       </c>
       <c r="O5">
-        <v>0.6537373431914789</v>
+        <v>0.7229026704265641</v>
       </c>
       <c r="P5">
-        <v>0.5651394050067473</v>
+        <v>0.6619651481449297</v>
       </c>
       <c r="Q5">
-        <v>0.5765162473455</v>
+        <v>1.006816218117</v>
       </c>
       <c r="R5">
-        <v>2.306064989382</v>
+        <v>4.027264872468</v>
       </c>
       <c r="S5">
-        <v>0.6537373431914789</v>
+        <v>0.7229026704265641</v>
       </c>
       <c r="T5">
-        <v>0.5651394050067473</v>
+        <v>0.6619651481449297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1173095</v>
+        <v>0.159713</v>
       </c>
       <c r="H6">
-        <v>0.234619</v>
+        <v>0.319426</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6010243333333334</v>
+        <v>0.07084766666666666</v>
       </c>
       <c r="N6">
-        <v>1.803073</v>
+        <v>0.212543</v>
       </c>
       <c r="O6">
-        <v>0.07994972638391565</v>
+        <v>0.008124477594271174</v>
       </c>
       <c r="P6">
-        <v>0.1036717756824495</v>
+        <v>0.01115942968737079</v>
       </c>
       <c r="Q6">
-        <v>0.07050586403116667</v>
+        <v>0.01131529338633333</v>
       </c>
       <c r="R6">
-        <v>0.423035184187</v>
+        <v>0.067891760318</v>
       </c>
       <c r="S6">
-        <v>0.07994972638391565</v>
+        <v>0.008124477594271174</v>
       </c>
       <c r="T6">
-        <v>0.1036717756824495</v>
+        <v>0.01115942968737079</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1173095</v>
+        <v>0.159713</v>
       </c>
       <c r="H7">
-        <v>0.234619</v>
+        <v>0.319426</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2247126666666667</v>
+        <v>0.002219333333333333</v>
       </c>
       <c r="N7">
-        <v>0.674138</v>
+        <v>0.006658</v>
       </c>
       <c r="O7">
-        <v>0.02989182836468636</v>
+        <v>0.0002545027209677923</v>
       </c>
       <c r="P7">
-        <v>0.03876109481702357</v>
+        <v>0.0003495738879121623</v>
       </c>
       <c r="Q7">
-        <v>0.02636093057033333</v>
+        <v>0.0003544563846666666</v>
       </c>
       <c r="R7">
-        <v>0.158165583422</v>
+        <v>0.002126738308</v>
       </c>
       <c r="S7">
-        <v>0.02989182836468636</v>
+        <v>0.0002545027209677923</v>
       </c>
       <c r="T7">
-        <v>0.03876109481702357</v>
+        <v>0.0003495738879121623</v>
       </c>
     </row>
   </sheetData>
